--- a/acompanhamento_avaliacoes_programacao3.xlsx
+++ b/acompanhamento_avaliacoes_programacao3.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="23800" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="23800" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$F$24</definedName>
+  </definedNames>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -93,7 +96,7 @@
     <t>Prova</t>
   </si>
   <si>
-    <t>-</t>
+    <t>final</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E25"/>
+  <dimension ref="A4:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -485,7 +488,7 @@
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>21</v>
       </c>
@@ -495,277 +498,467 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>20132620027</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F24" si="0">C5+D5+E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>20132620264</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>20122620245</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>20131620236</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>20141620204</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>20141620263</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>20131620112</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2.1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>20141620077</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>20141620140</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2.1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>20141620042</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>20141620301</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>20141620069</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>20141620115</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>20141620174</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>20141620166</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
         <v>20141620212</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>20141620140</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>20132620264</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>20141620204</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>20141620263</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
         <v>20141620280</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>20141620115</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>20131620112</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>7</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>20141620174</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>20141620069</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>20132620027</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="F21">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
         <v>20141620271</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
         <v>20141620050</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>20122620245</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>20141620042</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>20131620236</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
         <v>20141620131</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20141620077</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>20141620301</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>20141620166</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>20141620158</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:F24">
+    <sortState ref="A5:F25">
+      <sortCondition ref="F4:F25"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107822"/>
-    <hyperlink ref="B5" r:id="rId2" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A6" r:id="rId3" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107805"/>
-    <hyperlink ref="B6" r:id="rId4" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A7" r:id="rId5" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=100180"/>
-    <hyperlink ref="B7" r:id="rId6" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A8" r:id="rId7" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107821"/>
-    <hyperlink ref="B8" r:id="rId8" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A9" r:id="rId9" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107827"/>
-    <hyperlink ref="B9" r:id="rId10" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A10" r:id="rId11" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107829"/>
-    <hyperlink ref="B10" r:id="rId12" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A11" r:id="rId13" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107802"/>
-    <hyperlink ref="B11" r:id="rId14" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A12" r:id="rId15" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=91334"/>
-    <hyperlink ref="B12" r:id="rId16" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A13" r:id="rId17" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107818"/>
-    <hyperlink ref="B13" r:id="rId18" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A14" r:id="rId19" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107797"/>
-    <hyperlink ref="B14" r:id="rId20" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A15" r:id="rId21" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=100064"/>
-    <hyperlink ref="B15" r:id="rId22" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A16" r:id="rId23" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107828"/>
-    <hyperlink ref="B16" r:id="rId24" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A17" r:id="rId25" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107796"/>
-    <hyperlink ref="B17" r:id="rId26" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A18" r:id="rId27" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=81866"/>
-    <hyperlink ref="B18" r:id="rId28" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A19" r:id="rId29" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107795"/>
-    <hyperlink ref="B19" r:id="rId30" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A20" r:id="rId31" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=91346"/>
-    <hyperlink ref="B20" r:id="rId32" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A21" r:id="rId33" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107804"/>
-    <hyperlink ref="B21" r:id="rId34" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A22" r:id="rId35" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107798"/>
-    <hyperlink ref="B22" r:id="rId36" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A23" r:id="rId37" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=108560"/>
-    <hyperlink ref="B23" r:id="rId38" tooltip="Consulta Dados do Aluno"/>
-    <hyperlink ref="A24" r:id="rId39" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107817"/>
-    <hyperlink ref="B24" r:id="rId40" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A20" r:id="rId1" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107822"/>
+    <hyperlink ref="B20" r:id="rId2" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A13" r:id="rId3" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107805"/>
+    <hyperlink ref="B13" r:id="rId4" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A6" r:id="rId5" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=100180"/>
+    <hyperlink ref="B6" r:id="rId6" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A9" r:id="rId7" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107821"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A10" r:id="rId9" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107827"/>
+    <hyperlink ref="B10" r:id="rId10" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A21" r:id="rId11" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107829"/>
+    <hyperlink ref="B21" r:id="rId12" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A17" r:id="rId13" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107802"/>
+    <hyperlink ref="B17" r:id="rId14" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A11" r:id="rId15" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=91334"/>
+    <hyperlink ref="B11" r:id="rId16" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A18" r:id="rId17" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107818"/>
+    <hyperlink ref="B18" r:id="rId18" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A16" r:id="rId19" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107797"/>
+    <hyperlink ref="B16" r:id="rId20" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A5" r:id="rId21" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=100064"/>
+    <hyperlink ref="B5" r:id="rId22" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A22" r:id="rId23" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107828"/>
+    <hyperlink ref="B22" r:id="rId24" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A23" r:id="rId25" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107796"/>
+    <hyperlink ref="B23" r:id="rId26" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A7" r:id="rId27" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=81866"/>
+    <hyperlink ref="B7" r:id="rId28" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A14" r:id="rId29" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107795"/>
+    <hyperlink ref="B14" r:id="rId30" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A8" r:id="rId31" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=91346"/>
+    <hyperlink ref="B8" r:id="rId32" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A24" r:id="rId33" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107804"/>
+    <hyperlink ref="B24" r:id="rId34" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A12" r:id="rId35" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107798"/>
+    <hyperlink ref="B12" r:id="rId36" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A15" r:id="rId37" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=108560"/>
+    <hyperlink ref="B15" r:id="rId38" tooltip="Consulta Dados do Aluno"/>
+    <hyperlink ref="A19" r:id="rId39" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107817"/>
+    <hyperlink ref="B19" r:id="rId40" tooltip="Consulta Dados do Aluno"/>
     <hyperlink ref="A25" r:id="rId41" tooltip="Consulta Dados do Aluno" display="http://qacademico.ifsul.edu.br/QACADEMICO/index.asp?t=3081&amp;COD_MATRICULA=107806"/>
     <hyperlink ref="B25" r:id="rId42" tooltip="Consulta Dados do Aluno"/>
   </hyperlinks>
